--- a/Lab/Basic-DiD/IPW.xlsx
+++ b/Lab/Basic-DiD/IPW.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Lab/Basic-DiD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CC2218-DE5E-874A-A107-5741C5135B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179A808-6DF9-E84D-9412-38CBDF6704F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="44800" windowHeight="22960" xr2:uid="{0A9856E1-3D33-E74F-8825-D15A1BD45D8F}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="44800" windowHeight="22960" activeTab="1" xr2:uid="{0A9856E1-3D33-E74F-8825-D15A1BD45D8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IPW" sheetId="1" r:id="rId1"/>
+    <sheet name="OR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -154,16 +155,53 @@
   <si>
     <t>ATT</t>
   </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Average pre to post (column D)</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Regress Change in Y onto baseline X for the control group only (D=0)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Regress Delta Y onto X_b</t>
+  </si>
+  <si>
+    <t>but only for Daniel, Elaine,</t>
+  </si>
+  <si>
+    <t>Frank, Greg and Hank.</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Use the coefficients from that regression (constant and the ceofficients on each X)</t>
+  </si>
+  <si>
+    <t>and "predict" Delta Y for the treatment group.</t>
+  </si>
+  <si>
+    <t>Delta muhat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,8 +228,22 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -364,11 +434,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -455,6 +549,75 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866EE4D-6786-864B-89B8-B5D279B22BA8}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,4 +1314,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCCFA7D-1902-8141-8628-B2FB984A4EDD}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="48">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="48">
+        <v>75000</v>
+      </c>
+      <c r="D2" s="49">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="50">
+        <v>1</v>
+      </c>
+      <c r="F2" s="68">
+        <v>15</v>
+      </c>
+      <c r="G2" s="74">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="48">
+        <v>90000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>55000</v>
+      </c>
+      <c r="D3" s="51">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1</v>
+      </c>
+      <c r="F3" s="69">
+        <v>20</v>
+      </c>
+      <c r="G3" s="75">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="53">
+        <v>90000</v>
+      </c>
+      <c r="C4" s="53">
+        <v>45000</v>
+      </c>
+      <c r="D4" s="51">
+        <v>45000</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1</v>
+      </c>
+      <c r="F4" s="70">
+        <v>85</v>
+      </c>
+      <c r="G4" s="76">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="56">
+        <v>66000</v>
+      </c>
+      <c r="C5" s="56">
+        <v>33000</v>
+      </c>
+      <c r="D5" s="57">
+        <v>33000</v>
+      </c>
+      <c r="E5" s="58">
+        <v>0</v>
+      </c>
+      <c r="F5" s="71">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="56">
+        <v>120000</v>
+      </c>
+      <c r="C6" s="56">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="57">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="72">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="56">
+        <v>75000</v>
+      </c>
+      <c r="C7" s="56">
+        <v>70000</v>
+      </c>
+      <c r="D7" s="57">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0</v>
+      </c>
+      <c r="F7" s="72">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="56">
+        <v>85000</v>
+      </c>
+      <c r="C8" s="56">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="57">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="58">
+        <v>0</v>
+      </c>
+      <c r="F8" s="72">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="60">
+        <v>90000</v>
+      </c>
+      <c r="C9" s="61">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="62">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab/Basic-DiD/IPW.xlsx
+++ b/Lab/Basic-DiD/IPW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-2/Lab/Basic-DiD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179A808-6DF9-E84D-9412-38CBDF6704F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F17230-CE36-1A46-89AD-8E10DD72349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1020" windowWidth="44800" windowHeight="22960" activeTab="1" xr2:uid="{0A9856E1-3D33-E74F-8825-D15A1BD45D8F}"/>
   </bookViews>
